--- a/Karnoff_maquinas_de_estado.xlsx
+++ b/Karnoff_maquinas_de_estado.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b79ca85a92281799/Documents/Universidad/Semestre 2025-1/Asignaturas/ARQUITECTURA DE COMPUTADORES Y LABORATORIO/Lab 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{5DB19D0B-097C-4AF1-8E7A-730EE07C59DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9DEF1E8-92DB-4938-A0BD-454786380688}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{5DB19D0B-097C-4AF1-8E7A-730EE07C59DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E03259-E8BC-4876-AF80-AE36017E0426}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7EB6595B-4BA6-420F-A5A1-0F6D4DC55713}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{7EB6595B-4BA6-420F-A5A1-0F6D4DC55713}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MEF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="62">
   <si>
     <t>K_D</t>
   </si>
@@ -144,6 +145,84 @@
   </si>
   <si>
     <t>J_A = BCD</t>
+  </si>
+  <si>
+    <t>Q(t)</t>
+  </si>
+  <si>
+    <t>Q(t+1)</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>J_aK_a</t>
+  </si>
+  <si>
+    <t>J_bK_b</t>
+  </si>
+  <si>
+    <t>J_cK_c</t>
+  </si>
+  <si>
+    <t>KARNOFF</t>
+  </si>
+  <si>
+    <t>a\bc</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>J_A = BC</t>
+  </si>
+  <si>
+    <t>K_A = BC</t>
+  </si>
+  <si>
+    <t>J_B = C</t>
+  </si>
+  <si>
+    <t>K_B = C</t>
+  </si>
+  <si>
+    <t>J_C = 1</t>
+  </si>
+  <si>
+    <t>K_C = 1</t>
   </si>
 </sst>
 </file>
@@ -159,15 +238,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -175,16 +260,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -202,6 +375,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Práctica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0ACA82-C74B-40B3-A79D-20C3A4D57C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4686300" y="209550"/>
+          <a:ext cx="2238375" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EA621C-067A-4EB9-8EC8-78114625A3CC}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,20 +783,20 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -758,36 +1001,36 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
@@ -944,36 +1187,36 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="I18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
@@ -1130,36 +1373,36 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="I24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="I26" s="2" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="I26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
@@ -1316,20 +1559,20 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="I32" s="2" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1352,4 +1595,650 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7A34C4-25CD-439A-A116-AF166899322B}">
+  <dimension ref="B2:Y24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="1" customWidth="1"/>
+    <col min="13" max="30" width="5.140625" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+      <c r="M11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="T11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+      <c r="M12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L14" s="4"/>
+      <c r="M14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L15" s="4"/>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="L16" s="4"/>
+      <c r="M16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="T16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L17" s="4"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L18" s="4"/>
+      <c r="M18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="T18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+      <c r="M19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="5"/>
+    </row>
+    <row r="20" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L20" s="4"/>
+      <c r="M20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+      <c r="M21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L22" s="4"/>
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="23" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+      <c r="M23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="T23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="5"/>
+    </row>
+    <row r="24" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="L2:Y2"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="T23:X23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>